--- a/data/FictitiousData.xlsx
+++ b/data/FictitiousData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myumanitoba-my.sharepoint.com/personal/gousseaz_myumanitoba_onmicrosoft_com/Documents/Documents/Engineering/Year 5/Winter/CIVL 4332 UG Thesis/GA-Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachg\Documents\ug_thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{22594ED7-21C2-4E89-A5B6-C3A75A3502CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{298C57C0-E5F1-44B9-B09E-CBE7FD24E20C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A3202-4FAA-4AC2-A989-F0AEB62EEDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeWindows" sheetId="1" r:id="rId1"/>
@@ -82,32 +82,32 @@
     <t>2 - Nodes</t>
   </si>
   <si>
-    <t>2 - Times</t>
+    <t>2 - Time</t>
   </si>
   <si>
     <t>3 - Nodes</t>
   </si>
   <si>
-    <t>3 - Times</t>
+    <t>3 - Time</t>
   </si>
   <si>
     <t>4 - Nodes</t>
   </si>
   <si>
-    <t>4 - Times</t>
+    <t>4 - Time</t>
   </si>
   <si>
     <t>5 - Nodes</t>
   </si>
   <si>
-    <t>5 - Times</t>
+    <t>5 - Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,25 +123,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,13 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -491,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BE61B-35F5-46A9-B094-866AE2F14A78}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +502,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="C2">
@@ -520,10 +513,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3">
@@ -531,10 +524,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>4.1666666666666699E-2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>6.25E-2</v>
       </c>
       <c r="C4">
@@ -542,10 +535,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="C5">
@@ -553,10 +546,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>0.104166666666667</v>
       </c>
       <c r="C6">
@@ -564,10 +557,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>0.104166666666667</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.125</v>
       </c>
       <c r="C7">
@@ -575,10 +568,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>0.125</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.14583333333333301</v>
       </c>
       <c r="C8">
@@ -586,10 +579,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>0.14583333333333301</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.16666666666666599</v>
       </c>
       <c r="C9">
@@ -597,10 +590,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>0.16666666666666699</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0.1875</v>
       </c>
       <c r="C10">
@@ -608,10 +601,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>0.1875</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.20833333333333301</v>
       </c>
       <c r="C11">
@@ -619,10 +612,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>0.20833333333333301</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>0.22916666666666599</v>
       </c>
       <c r="C12">
@@ -630,10 +623,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>0.22916666666666699</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>0.25</v>
       </c>
       <c r="C13">
@@ -641,274 +634,274 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>0.25</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.27083333333333298</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>0.27083333333333298</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0.29166666666666602</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>0.3125</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>0.3125</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.33333333333333298</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>0.35416666666666602</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.375</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>0.375</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>0.41666666666666602</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>0.4375</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>0.4375</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>0.47916666666666602</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>0.5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>0.5</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>0.54166666666666596</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>0.5625</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>0.5625</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>0.60416666666666596</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>0.625</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>0.625</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>0.66666666666666596</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>0.6875</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>0.6875</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>0.72916666666666596</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>0.75</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>0.75</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>0.77083333333333304</v>
       </c>
       <c r="C38">
@@ -916,10 +909,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>0.77083333333333304</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>0.79166666666666596</v>
       </c>
       <c r="C39">
@@ -927,10 +920,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>0.8125</v>
       </c>
       <c r="C40">
@@ -938,10 +931,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>0.8125</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>0.83333333333333304</v>
       </c>
       <c r="C41">
@@ -949,10 +942,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>0.85416666666666596</v>
       </c>
       <c r="C42">
@@ -960,10 +953,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>0.85416666666666696</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>0.875</v>
       </c>
       <c r="C43">
@@ -971,10 +964,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>0.875</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>0.89583333333333304</v>
       </c>
       <c r="C44">
@@ -982,10 +975,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>0.89583333333333304</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>0.91666666666666596</v>
       </c>
       <c r="C45">
@@ -993,10 +986,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>0.91666666666666696</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>0.9375</v>
       </c>
       <c r="C46">
@@ -1004,10 +997,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>0.9375</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>0.95833333333333304</v>
       </c>
       <c r="C47">
@@ -1015,10 +1008,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>0.95833333333333304</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>0.97916666666666596</v>
       </c>
       <c r="C48">
@@ -1026,10 +1019,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>0</v>
       </c>
       <c r="C49">
@@ -1037,8 +1030,8 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1048,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52128547-00A5-4D6A-A649-D1E7E9FB28E3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,11 +1053,12 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1091,8 +1085,9 @@
       <c r="D2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1105,8 +1100,9 @@
       <c r="D3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1119,8 +1115,9 @@
       <c r="D4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1133,8 +1130,9 @@
       <c r="D5">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1147,8 +1145,9 @@
       <c r="D6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1161,8 +1160,9 @@
       <c r="D7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1175,8 +1175,9 @@
       <c r="D8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1189,8 +1190,9 @@
       <c r="D9">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1203,8 +1205,9 @@
       <c r="D10">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1217,6 +1220,7 @@
       <c r="D11">
         <v>22</v>
       </c>
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1228,7 +1232,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,96 +1319,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E475AC0-E362-466C-9307-9D6EEC816D5D}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="4">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1484,7 +1486,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1564,7 +1566,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1644,7 +1646,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1724,7 +1726,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1804,7 +1806,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -1884,7 +1886,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -1964,7 +1966,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -2044,7 +2046,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -2124,7 +2126,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -2204,7 +2206,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -2284,7 +2286,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -2364,7 +2366,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -2444,7 +2446,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -2524,7 +2526,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -2604,7 +2606,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -2684,7 +2686,7 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -2764,7 +2766,7 @@
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -2844,7 +2846,7 @@
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
@@ -2924,7 +2926,7 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
@@ -3004,7 +3006,7 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
@@ -3084,7 +3086,7 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
@@ -3164,7 +3166,7 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
@@ -3244,7 +3246,7 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
@@ -3324,7 +3326,7 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
@@ -3404,2182 +3406,2144 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED4DAE1-F87F-4112-A3AD-CE040B32A835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50DCE0C-9B7E-4105-B455-C1A537A7D4F0}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="26" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="4">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1">
         <v>13</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1">
         <v>14</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1">
         <v>15</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1">
         <v>16</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1">
         <v>17</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1">
         <v>18</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1">
         <v>19</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1">
         <v>20</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1">
         <v>21</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1">
         <v>22</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1">
         <v>23</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1">
         <v>24</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="H2">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I2">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J2">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="L2">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N2">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="O2">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="P2">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="Q2">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="R2">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="T2">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="U2">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="V2">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="X2">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="Y2">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="Z2">
-        <v>9.6000000000000014</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="E3">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="G3">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="I3">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J3">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K3">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="M3">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O3">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Q3">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="R3">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S3">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="U3">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="W3">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="X3">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Y3">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="Z3">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="H4">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="J4">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="L4">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N4">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P4">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="R4">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="S4">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T4">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="V4">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="X4">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Z4">
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="C5">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="G5">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="H5">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I5">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="K5">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="M5">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O5">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q5">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="R5">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="S5">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="T5">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U5">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="V5">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="W5">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="X5">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Y5">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Z5">
-        <v>6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="D6">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
+        <v>62.5</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>37.5</v>
+      </c>
+      <c r="J6">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>12.5</v>
+      </c>
+      <c r="L6">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>62.5</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>37.5</v>
+      </c>
+      <c r="P6">
+        <v>25</v>
+      </c>
+      <c r="Q6">
+        <v>87.5</v>
+      </c>
+      <c r="R6">
+        <v>75</v>
+      </c>
+      <c r="S6">
+        <v>62.5</v>
+      </c>
+      <c r="T6">
+        <v>50</v>
+      </c>
+      <c r="U6">
+        <v>37.5</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6">
+        <v>87.5</v>
+      </c>
+      <c r="X6">
+        <v>75</v>
+      </c>
+      <c r="Y6">
+        <v>62.5</v>
+      </c>
+      <c r="Z6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="H6">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="I6">
-        <v>3.6</v>
-      </c>
-      <c r="J6">
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="K6">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="L6">
-        <v>7.2</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="Q6">
-        <v>8.4</v>
-      </c>
-      <c r="R6">
-        <v>7.2</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>4.8000000000000007</v>
-      </c>
-      <c r="U6">
-        <v>3.6</v>
-      </c>
-      <c r="V6">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="W6">
-        <v>8.4</v>
-      </c>
-      <c r="X6">
-        <v>7.2</v>
-      </c>
-      <c r="Y6">
-        <v>6</v>
-      </c>
-      <c r="Z6">
-        <v>4.8000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
       <c r="B7">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="C7">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="E7">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="I7">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J7">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K7">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="L7">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="M7">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N7">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O7">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Q7">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="R7">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S7">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="U7">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="V7">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="W7">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="X7">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Y7">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="Z7">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="D8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="F8">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="J8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="L8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="M8">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="N8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P8">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Q8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="R8">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T8">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="V8">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="W8">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="X8">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Y8">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Z8">
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="C9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="E9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="G9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="H9">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="K9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="M9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N9">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="O9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q9">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="R9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S9">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U9">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="W9">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="X9">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Y9">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Z9">
-        <v>6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="D10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="F10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="H10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="L10">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O10">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="P10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="R10">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="S10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T10">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="V10">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="W10">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="X10">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Y10">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z10">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="C11">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="E11">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="G11">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="H11">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I11">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="M11">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="N11">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O11">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P11">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Q11">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="S11">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="T11">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U11">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="V11">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="W11">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="X11">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Y11">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Z11">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="D12">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="F12">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="G12">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="H12">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I12">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J12">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="K12">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="N12">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O12">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P12">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Q12">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="R12">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S12">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T12">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="V12">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="W12">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="X12">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Y12">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Z12">
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="C13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="E13">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="G13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="H13">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="I13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K13">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="L13">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="O13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="R13">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="S13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U13">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="V13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="W13">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="X13">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Y13">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="D14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="E14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="F14">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="G14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="H14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I14">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="J14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="L14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="P14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Q14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="R14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S14">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="T14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="V14">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="W14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="X14">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Y14">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z14">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="C15">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="E15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="F15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="G15">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J15">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="K15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="M15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Q15">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="R15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T15">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="U15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="W15">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="X15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Y15">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Z15">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="D16">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E16">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="F16">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="H16">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="I16">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J16">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="L16">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N16">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O16">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="R16">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="S16">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T16">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U16">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="V16">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="W16">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="X16">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Y16">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z16">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="C17">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="E17">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="G17">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="H17">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I17">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="K17">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="L17">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="M17">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N17">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O17">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="P17">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="S17">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T17">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U17">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="V17">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="W17">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="X17">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Y17">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Z17">
-        <v>6</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="C18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="D18">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="F18">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="G18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="H18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="I18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J18">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="L18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="N18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P18">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Q18">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="T18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="V18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="W18">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="X18">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Y18">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z18">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="C19">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="E19">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="G19">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K19">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="M19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N19">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="O19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="R19">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="U19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="V19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="W19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="X19">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Y19">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Z19">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="D20">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="F20">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="H20">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="I20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="L20">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O20">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="P20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Q20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="R20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S20">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="V20">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="W20">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="X20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Y20">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Z20">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="C21">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="E21">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="G21">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="I21">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="J21">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K21">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="M21">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O21">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P21">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Q21">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="R21">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S21">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T21">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="W21">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="X21">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Y21">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Z21">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="D22">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="E22">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="F22">
-        <v>9.6000000000000014</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="H22">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="J22">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="L22">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N22">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="P22">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="Q22">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="R22">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S22">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T22">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
       <c r="W22">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="X22">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Y22">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Z22">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="C23">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="E23">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="F23">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="G23">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="I23">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="J23">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="K23">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="M23">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O23">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="P23">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="Q23">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="R23">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="S23">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T23">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="U23">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="V23">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Y23">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Z23">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="D24">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="F24">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="H24">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="J24">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="K24">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="L24">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="N24">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P24">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="Q24">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="R24">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="S24">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="T24">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U24">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="V24">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="W24">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Z24">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="C25">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="E25">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="G25">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="I25">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="J25">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="K25">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="L25">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="M25">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="N25">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="O25">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="P25">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="Q25">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="R25">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="S25">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="T25">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="U25">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="V25">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="W25">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="X25">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>9.6000000000000014</v>
+        <v>100</v>
       </c>
       <c r="C26">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="D26">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="F26">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="G26">
-        <v>8.4</v>
+        <v>87.5</v>
       </c>
       <c r="H26">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="J26">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="L26">
-        <v>7.2</v>
+        <v>75</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="N26">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="P26">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>62.5</v>
       </c>
       <c r="R26">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="S26">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="T26">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="U26">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="V26">
-        <v>4.8000000000000007</v>
+        <v>50</v>
       </c>
       <c r="W26">
-        <v>3.6</v>
+        <v>37.5</v>
       </c>
       <c r="X26">
-        <v>2.4000000000000004</v>
+        <v>25</v>
       </c>
       <c r="Y26">
-        <v>1.2000000000000002</v>
+        <v>12.5</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:Z26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E290E57-5AA8-4E4B-B099-1A00CF47BE70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A33471-588E-4B24-8A7F-8A915BF72CF3}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7120,6 +7084,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/FictitiousData.xlsx
+++ b/data/FictitiousData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachg\Documents\ug_thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5A3202-4FAA-4AC2-A989-F0AEB62EEDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637204BE-B92A-4484-BCEF-7DCB0F5D5075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeWindows" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BE61B-35F5-46A9-B094-866AE2F14A78}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -5509,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A33471-588E-4B24-8A7F-8A915BF72CF3}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/FictitiousData.xlsx
+++ b/data/FictitiousData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachg\Documents\ug_thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637204BE-B92A-4484-BCEF-7DCB0F5D5075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2195C-62AA-4C2E-A5FE-1E214781EFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80BE61B-35F5-46A9-B094-866AE2F14A78}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5509,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A33471-588E-4B24-8A7F-8A915BF72CF3}">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5551,1536 +5551,1536 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" s="2">
+        <v>0</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" s="2">
+        <v>0</v>
       </c>
       <c r="G2">
         <v>15</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" s="2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>21</v>
       </c>
-      <c r="J2">
-        <v>1</v>
+      <c r="J2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
-      <c r="F3">
-        <v>2</v>
+      <c r="F3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="H3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="I3">
         <v>22</v>
       </c>
-      <c r="J3">
-        <v>2</v>
+      <c r="J3" s="2">
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" s="2">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="D4" s="2">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="E4">
         <v>12</v>
       </c>
-      <c r="F4">
-        <v>3</v>
+      <c r="F4" s="2">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="G4">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>3</v>
+      <c r="H4" s="2">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="I4">
         <v>23</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" s="2">
+        <v>4.1666666666666699E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
+      <c r="B5" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>4</v>
+      <c r="D5" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="F5" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
-      <c r="H5">
-        <v>4</v>
+      <c r="H5" s="2">
+        <v>6.25E-2</v>
       </c>
       <c r="I5">
         <v>24</v>
       </c>
-      <c r="J5">
-        <v>4</v>
+      <c r="J5" s="2">
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" s="2">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>5</v>
+      <c r="D6" s="2">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>5</v>
+      <c r="F6" s="2">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="G6">
         <v>19</v>
       </c>
-      <c r="H6">
-        <v>5</v>
+      <c r="H6" s="2">
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="I6">
         <v>25</v>
       </c>
-      <c r="J6">
-        <v>5</v>
+      <c r="J6" s="2">
+        <v>8.3333333333333301E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>6</v>
+      <c r="B7" s="2">
+        <v>0.104166666666667</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>6</v>
+      <c r="D7" s="2">
+        <v>0.104166666666667</v>
       </c>
       <c r="E7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>6</v>
+      <c r="F7" s="2">
+        <v>0.104166666666667</v>
       </c>
       <c r="G7">
         <v>20</v>
       </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="H7" s="2">
+        <v>0.104166666666667</v>
       </c>
       <c r="I7">
         <v>21</v>
       </c>
-      <c r="J7">
-        <v>6</v>
+      <c r="J7" s="2">
+        <v>0.104166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>7</v>
+      <c r="B8" s="2">
+        <v>0.125</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>7</v>
+      <c r="D8" s="2">
+        <v>0.125</v>
       </c>
       <c r="E8">
         <v>11</v>
       </c>
-      <c r="F8">
-        <v>7</v>
+      <c r="F8" s="2">
+        <v>0.125</v>
       </c>
       <c r="G8">
         <v>15</v>
       </c>
-      <c r="H8">
-        <v>7</v>
+      <c r="H8" s="2">
+        <v>0.125</v>
       </c>
       <c r="I8">
         <v>22</v>
       </c>
-      <c r="J8">
-        <v>7</v>
+      <c r="J8" s="2">
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>8</v>
+      <c r="B9" s="2">
+        <v>0.14583333333333301</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>8</v>
+      <c r="D9" s="2">
+        <v>0.14583333333333301</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9">
-        <v>8</v>
+      <c r="F9" s="2">
+        <v>0.14583333333333301</v>
       </c>
       <c r="G9">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>8</v>
+      <c r="H9" s="2">
+        <v>0.14583333333333301</v>
       </c>
       <c r="I9">
         <v>23</v>
       </c>
-      <c r="J9">
-        <v>8</v>
+      <c r="J9" s="2">
+        <v>0.14583333333333301</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>9</v>
+      <c r="B10" s="2">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10">
-        <v>9</v>
+      <c r="D10" s="2">
+        <v>0.16666666666666699</v>
       </c>
       <c r="E10">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>9</v>
+      <c r="F10" s="2">
+        <v>0.16666666666666699</v>
       </c>
       <c r="G10">
         <v>17</v>
       </c>
-      <c r="H10">
-        <v>9</v>
+      <c r="H10" s="2">
+        <v>0.16666666666666699</v>
       </c>
       <c r="I10">
         <v>24</v>
       </c>
-      <c r="J10">
-        <v>9</v>
+      <c r="J10" s="2">
+        <v>0.16666666666666699</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" s="2">
+        <v>0.1875</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11">
-        <v>10</v>
+      <c r="D11" s="2">
+        <v>0.1875</v>
       </c>
       <c r="E11">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>10</v>
+      <c r="F11" s="2">
+        <v>0.1875</v>
       </c>
       <c r="G11">
         <v>18</v>
       </c>
-      <c r="H11">
-        <v>10</v>
+      <c r="H11" s="2">
+        <v>0.1875</v>
       </c>
       <c r="I11">
         <v>25</v>
       </c>
-      <c r="J11">
-        <v>10</v>
+      <c r="J11" s="2">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>11</v>
+      <c r="B12" s="2">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>11</v>
+      <c r="D12" s="2">
+        <v>0.20833333333333301</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="F12">
-        <v>11</v>
+      <c r="F12" s="2">
+        <v>0.20833333333333301</v>
       </c>
       <c r="G12">
         <v>19</v>
       </c>
-      <c r="H12">
-        <v>11</v>
+      <c r="H12" s="2">
+        <v>0.20833333333333301</v>
       </c>
       <c r="I12">
         <v>21</v>
       </c>
-      <c r="J12">
-        <v>11</v>
+      <c r="J12" s="2">
+        <v>0.20833333333333301</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>12</v>
+      <c r="B13" s="2">
+        <v>0.22916666666666699</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13">
-        <v>12</v>
+      <c r="D13" s="2">
+        <v>0.22916666666666699</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
-      <c r="F13">
-        <v>12</v>
+      <c r="F13" s="2">
+        <v>0.22916666666666699</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>12</v>
+      <c r="H13" s="2">
+        <v>0.22916666666666699</v>
       </c>
       <c r="I13">
         <v>22</v>
       </c>
-      <c r="J13">
-        <v>12</v>
+      <c r="J13" s="2">
+        <v>0.22916666666666699</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>13</v>
+      <c r="B14" s="2">
+        <v>0.25</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>13</v>
+      <c r="D14" s="2">
+        <v>0.25</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
-      <c r="F14">
-        <v>13</v>
+      <c r="F14" s="2">
+        <v>0.25</v>
       </c>
       <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14">
-        <v>13</v>
+      <c r="H14" s="2">
+        <v>0.25</v>
       </c>
       <c r="I14">
         <v>23</v>
       </c>
-      <c r="J14">
-        <v>13</v>
+      <c r="J14" s="2">
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" s="2">
+        <v>0.27083333333333298</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>14</v>
+      <c r="D15" s="2">
+        <v>0.27083333333333298</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
-      <c r="F15">
-        <v>14</v>
+      <c r="F15" s="2">
+        <v>0.27083333333333298</v>
       </c>
       <c r="G15">
         <v>16</v>
       </c>
-      <c r="H15">
-        <v>14</v>
+      <c r="H15" s="2">
+        <v>0.27083333333333298</v>
       </c>
       <c r="I15">
         <v>24</v>
       </c>
-      <c r="J15">
-        <v>14</v>
+      <c r="J15" s="2">
+        <v>0.27083333333333298</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="B16" s="2">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16">
-        <v>15</v>
+      <c r="D16" s="2">
+        <v>0.29166666666666702</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
-      <c r="F16">
-        <v>15</v>
+      <c r="F16" s="2">
+        <v>0.29166666666666702</v>
       </c>
       <c r="G16">
         <v>17</v>
       </c>
-      <c r="H16">
-        <v>15</v>
+      <c r="H16" s="2">
+        <v>0.29166666666666702</v>
       </c>
       <c r="I16">
         <v>25</v>
       </c>
-      <c r="J16">
-        <v>15</v>
+      <c r="J16" s="2">
+        <v>0.29166666666666702</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>16</v>
+      <c r="B17" s="2">
+        <v>0.3125</v>
       </c>
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>16</v>
+      <c r="D17" s="2">
+        <v>0.3125</v>
       </c>
       <c r="E17">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>16</v>
+      <c r="F17" s="2">
+        <v>0.3125</v>
       </c>
       <c r="G17">
         <v>18</v>
       </c>
-      <c r="H17">
-        <v>16</v>
+      <c r="H17" s="2">
+        <v>0.3125</v>
       </c>
       <c r="I17">
         <v>21</v>
       </c>
-      <c r="J17">
-        <v>16</v>
+      <c r="J17" s="2">
+        <v>0.3125</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18">
-        <v>17</v>
+      <c r="B18" s="2">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C18">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>17</v>
+      <c r="D18" s="2">
+        <v>0.33333333333333298</v>
       </c>
       <c r="E18">
         <v>11</v>
       </c>
-      <c r="F18">
-        <v>17</v>
+      <c r="F18" s="2">
+        <v>0.33333333333333298</v>
       </c>
       <c r="G18">
         <v>19</v>
       </c>
-      <c r="H18">
-        <v>17</v>
+      <c r="H18" s="2">
+        <v>0.33333333333333298</v>
       </c>
       <c r="I18">
         <v>22</v>
       </c>
-      <c r="J18">
-        <v>17</v>
+      <c r="J18" s="2">
+        <v>0.33333333333333298</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>18</v>
+      <c r="B19" s="2">
+        <v>0.35416666666666702</v>
       </c>
       <c r="C19">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>18</v>
+      <c r="D19" s="2">
+        <v>0.35416666666666702</v>
       </c>
       <c r="E19">
         <v>12</v>
       </c>
-      <c r="F19">
-        <v>18</v>
+      <c r="F19" s="2">
+        <v>0.35416666666666702</v>
       </c>
       <c r="G19">
         <v>20</v>
       </c>
-      <c r="H19">
-        <v>18</v>
+      <c r="H19" s="2">
+        <v>0.35416666666666702</v>
       </c>
       <c r="I19">
         <v>23</v>
       </c>
-      <c r="J19">
-        <v>18</v>
+      <c r="J19" s="2">
+        <v>0.35416666666666702</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20">
-        <v>19</v>
+      <c r="B20" s="2">
+        <v>0.375</v>
       </c>
       <c r="C20">
         <v>8</v>
       </c>
-      <c r="D20">
-        <v>19</v>
+      <c r="D20" s="2">
+        <v>0.375</v>
       </c>
       <c r="E20">
         <v>13</v>
       </c>
-      <c r="F20">
-        <v>19</v>
+      <c r="F20" s="2">
+        <v>0.375</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
-      <c r="H20">
-        <v>19</v>
+      <c r="H20" s="2">
+        <v>0.375</v>
       </c>
       <c r="I20">
         <v>24</v>
       </c>
-      <c r="J20">
-        <v>19</v>
+      <c r="J20" s="2">
+        <v>0.375</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21">
-        <v>20</v>
+      <c r="B21" s="2">
+        <v>0.39583333333333298</v>
       </c>
       <c r="C21">
         <v>9</v>
       </c>
-      <c r="D21">
-        <v>20</v>
+      <c r="D21" s="2">
+        <v>0.39583333333333298</v>
       </c>
       <c r="E21">
         <v>14</v>
       </c>
-      <c r="F21">
-        <v>20</v>
+      <c r="F21" s="2">
+        <v>0.39583333333333298</v>
       </c>
       <c r="G21">
         <v>16</v>
       </c>
-      <c r="H21">
-        <v>20</v>
+      <c r="H21" s="2">
+        <v>0.39583333333333298</v>
       </c>
       <c r="I21">
         <v>25</v>
       </c>
-      <c r="J21">
-        <v>20</v>
+      <c r="J21" s="2">
+        <v>0.39583333333333298</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" s="2">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>21</v>
+      <c r="D22" s="2">
+        <v>0.41666666666666702</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>21</v>
+      <c r="F22" s="2">
+        <v>0.41666666666666702</v>
       </c>
       <c r="G22">
         <v>17</v>
       </c>
-      <c r="H22">
-        <v>21</v>
+      <c r="H22" s="2">
+        <v>0.41666666666666702</v>
       </c>
       <c r="I22">
         <v>21</v>
       </c>
-      <c r="J22">
-        <v>21</v>
+      <c r="J22" s="2">
+        <v>0.41666666666666702</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23">
-        <v>22</v>
+      <c r="B23" s="2">
+        <v>0.4375</v>
       </c>
       <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>22</v>
+      <c r="D23" s="2">
+        <v>0.4375</v>
       </c>
       <c r="E23">
         <v>11</v>
       </c>
-      <c r="F23">
-        <v>22</v>
+      <c r="F23" s="2">
+        <v>0.4375</v>
       </c>
       <c r="G23">
         <v>18</v>
       </c>
-      <c r="H23">
-        <v>22</v>
+      <c r="H23" s="2">
+        <v>0.4375</v>
       </c>
       <c r="I23">
         <v>22</v>
       </c>
-      <c r="J23">
-        <v>22</v>
+      <c r="J23" s="2">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>23</v>
+      <c r="B24" s="2">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>23</v>
+      <c r="D24" s="2">
+        <v>0.45833333333333298</v>
       </c>
       <c r="E24">
         <v>12</v>
       </c>
-      <c r="F24">
-        <v>23</v>
+      <c r="F24" s="2">
+        <v>0.45833333333333298</v>
       </c>
       <c r="G24">
         <v>19</v>
       </c>
-      <c r="H24">
-        <v>23</v>
+      <c r="H24" s="2">
+        <v>0.45833333333333298</v>
       </c>
       <c r="I24">
         <v>23</v>
       </c>
-      <c r="J24">
-        <v>23</v>
+      <c r="J24" s="2">
+        <v>0.45833333333333298</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25">
-        <v>24</v>
+      <c r="B25" s="2">
+        <v>0.47916666666666702</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
-      <c r="D25">
-        <v>24</v>
+      <c r="D25" s="2">
+        <v>0.47916666666666702</v>
       </c>
       <c r="E25">
         <v>13</v>
       </c>
-      <c r="F25">
-        <v>24</v>
+      <c r="F25" s="2">
+        <v>0.47916666666666702</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
-      <c r="H25">
-        <v>24</v>
+      <c r="H25" s="2">
+        <v>0.47916666666666702</v>
       </c>
       <c r="I25">
         <v>24</v>
       </c>
-      <c r="J25">
-        <v>24</v>
+      <c r="J25" s="2">
+        <v>0.47916666666666702</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="B26">
-        <v>25</v>
+      <c r="B26" s="2">
+        <v>0.5</v>
       </c>
       <c r="C26">
         <v>9</v>
       </c>
-      <c r="D26">
-        <v>25</v>
+      <c r="D26" s="2">
+        <v>0.5</v>
       </c>
       <c r="E26">
         <v>14</v>
       </c>
-      <c r="F26">
-        <v>25</v>
+      <c r="F26" s="2">
+        <v>0.5</v>
       </c>
       <c r="G26">
         <v>15</v>
       </c>
-      <c r="H26">
-        <v>25</v>
+      <c r="H26" s="2">
+        <v>0.5</v>
       </c>
       <c r="I26">
         <v>25</v>
       </c>
-      <c r="J26">
-        <v>25</v>
+      <c r="J26" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27">
-        <v>26</v>
+      <c r="B27" s="2">
+        <v>0.52083333333333304</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27">
-        <v>26</v>
+      <c r="D27" s="2">
+        <v>0.52083333333333304</v>
       </c>
       <c r="E27">
         <v>10</v>
       </c>
-      <c r="F27">
-        <v>26</v>
+      <c r="F27" s="2">
+        <v>0.52083333333333304</v>
       </c>
       <c r="G27">
         <v>16</v>
       </c>
-      <c r="H27">
-        <v>26</v>
+      <c r="H27" s="2">
+        <v>0.52083333333333304</v>
       </c>
       <c r="I27">
         <v>21</v>
       </c>
-      <c r="J27">
-        <v>26</v>
+      <c r="J27" s="2">
+        <v>0.52083333333333304</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" s="2">
+        <v>0.54166666666666696</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>27</v>
+      <c r="D28" s="2">
+        <v>0.54166666666666696</v>
       </c>
       <c r="E28">
         <v>11</v>
       </c>
-      <c r="F28">
-        <v>27</v>
+      <c r="F28" s="2">
+        <v>0.54166666666666696</v>
       </c>
       <c r="G28">
         <v>17</v>
       </c>
-      <c r="H28">
-        <v>27</v>
+      <c r="H28" s="2">
+        <v>0.54166666666666696</v>
       </c>
       <c r="I28">
         <v>22</v>
       </c>
-      <c r="J28">
-        <v>27</v>
+      <c r="J28" s="2">
+        <v>0.54166666666666696</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29">
-        <v>28</v>
+      <c r="B29" s="2">
+        <v>0.5625</v>
       </c>
       <c r="C29">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>28</v>
+      <c r="D29" s="2">
+        <v>0.5625</v>
       </c>
       <c r="E29">
         <v>12</v>
       </c>
-      <c r="F29">
-        <v>28</v>
+      <c r="F29" s="2">
+        <v>0.5625</v>
       </c>
       <c r="G29">
         <v>18</v>
       </c>
-      <c r="H29">
-        <v>28</v>
+      <c r="H29" s="2">
+        <v>0.5625</v>
       </c>
       <c r="I29">
         <v>23</v>
       </c>
-      <c r="J29">
-        <v>28</v>
+      <c r="J29" s="2">
+        <v>0.5625</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
-      <c r="B30">
-        <v>29</v>
+      <c r="B30" s="2">
+        <v>0.58333333333333304</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30">
-        <v>29</v>
+      <c r="D30" s="2">
+        <v>0.58333333333333304</v>
       </c>
       <c r="E30">
         <v>13</v>
       </c>
-      <c r="F30">
-        <v>29</v>
+      <c r="F30" s="2">
+        <v>0.58333333333333304</v>
       </c>
       <c r="G30">
         <v>19</v>
       </c>
-      <c r="H30">
-        <v>29</v>
+      <c r="H30" s="2">
+        <v>0.58333333333333304</v>
       </c>
       <c r="I30">
         <v>24</v>
       </c>
-      <c r="J30">
-        <v>29</v>
+      <c r="J30" s="2">
+        <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
-      <c r="B31">
-        <v>30</v>
+      <c r="B31" s="2">
+        <v>0.60416666666666696</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
-      <c r="D31">
-        <v>30</v>
+      <c r="D31" s="2">
+        <v>0.60416666666666696</v>
       </c>
       <c r="E31">
         <v>14</v>
       </c>
-      <c r="F31">
-        <v>30</v>
+      <c r="F31" s="2">
+        <v>0.60416666666666696</v>
       </c>
       <c r="G31">
         <v>20</v>
       </c>
-      <c r="H31">
-        <v>30</v>
+      <c r="H31" s="2">
+        <v>0.60416666666666696</v>
       </c>
       <c r="I31">
         <v>25</v>
       </c>
-      <c r="J31">
-        <v>30</v>
+      <c r="J31" s="2">
+        <v>0.60416666666666696</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32">
-        <v>31</v>
+      <c r="B32" s="2">
+        <v>0.625</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32">
-        <v>31</v>
+      <c r="D32" s="2">
+        <v>0.625</v>
       </c>
       <c r="E32">
         <v>10</v>
       </c>
-      <c r="F32">
-        <v>31</v>
+      <c r="F32" s="2">
+        <v>0.625</v>
       </c>
       <c r="G32">
         <v>15</v>
       </c>
-      <c r="H32">
-        <v>31</v>
+      <c r="H32" s="2">
+        <v>0.625</v>
       </c>
       <c r="I32">
         <v>21</v>
       </c>
-      <c r="J32">
-        <v>31</v>
+      <c r="J32" s="2">
+        <v>0.625</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33">
-        <v>32</v>
+      <c r="B33" s="2">
+        <v>0.64583333333333304</v>
       </c>
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33">
-        <v>32</v>
+      <c r="D33" s="2">
+        <v>0.64583333333333304</v>
       </c>
       <c r="E33">
         <v>11</v>
       </c>
-      <c r="F33">
-        <v>32</v>
+      <c r="F33" s="2">
+        <v>0.64583333333333304</v>
       </c>
       <c r="G33">
         <v>16</v>
       </c>
-      <c r="H33">
-        <v>32</v>
+      <c r="H33" s="2">
+        <v>0.64583333333333304</v>
       </c>
       <c r="I33">
         <v>22</v>
       </c>
-      <c r="J33">
-        <v>32</v>
+      <c r="J33" s="2">
+        <v>0.64583333333333304</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="B34" s="2">
+        <v>0.66666666666666696</v>
       </c>
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34">
-        <v>33</v>
+      <c r="D34" s="2">
+        <v>0.66666666666666696</v>
       </c>
       <c r="E34">
         <v>12</v>
       </c>
-      <c r="F34">
-        <v>33</v>
+      <c r="F34" s="2">
+        <v>0.66666666666666696</v>
       </c>
       <c r="G34">
         <v>17</v>
       </c>
-      <c r="H34">
-        <v>33</v>
+      <c r="H34" s="2">
+        <v>0.66666666666666696</v>
       </c>
       <c r="I34">
         <v>23</v>
       </c>
-      <c r="J34">
-        <v>33</v>
+      <c r="J34" s="2">
+        <v>0.66666666666666696</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35">
-        <v>34</v>
+      <c r="B35" s="2">
+        <v>0.6875</v>
       </c>
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35">
-        <v>34</v>
+      <c r="D35" s="2">
+        <v>0.6875</v>
       </c>
       <c r="E35">
         <v>13</v>
       </c>
-      <c r="F35">
-        <v>34</v>
+      <c r="F35" s="2">
+        <v>0.6875</v>
       </c>
       <c r="G35">
         <v>18</v>
       </c>
-      <c r="H35">
-        <v>34</v>
+      <c r="H35" s="2">
+        <v>0.6875</v>
       </c>
       <c r="I35">
         <v>24</v>
       </c>
-      <c r="J35">
-        <v>34</v>
+      <c r="J35" s="2">
+        <v>0.6875</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36">
-        <v>35</v>
+      <c r="B36" s="2">
+        <v>0.70833333333333304</v>
       </c>
       <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36">
-        <v>35</v>
+      <c r="D36" s="2">
+        <v>0.70833333333333304</v>
       </c>
       <c r="E36">
         <v>14</v>
       </c>
-      <c r="F36">
-        <v>35</v>
+      <c r="F36" s="2">
+        <v>0.70833333333333304</v>
       </c>
       <c r="G36">
         <v>19</v>
       </c>
-      <c r="H36">
-        <v>35</v>
+      <c r="H36" s="2">
+        <v>0.70833333333333304</v>
       </c>
       <c r="I36">
         <v>25</v>
       </c>
-      <c r="J36">
-        <v>35</v>
+      <c r="J36" s="2">
+        <v>0.70833333333333304</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37">
-        <v>36</v>
+      <c r="B37" s="2">
+        <v>0.72916666666666696</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>36</v>
+      <c r="D37" s="2">
+        <v>0.72916666666666696</v>
       </c>
       <c r="E37">
         <v>10</v>
       </c>
-      <c r="F37">
-        <v>36</v>
+      <c r="F37" s="2">
+        <v>0.72916666666666696</v>
       </c>
       <c r="G37">
         <v>20</v>
       </c>
-      <c r="H37">
-        <v>36</v>
+      <c r="H37" s="2">
+        <v>0.72916666666666696</v>
       </c>
       <c r="I37">
         <v>21</v>
       </c>
-      <c r="J37">
-        <v>36</v>
+      <c r="J37" s="2">
+        <v>0.72916666666666696</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
-      <c r="B38">
-        <v>37</v>
+      <c r="B38" s="2">
+        <v>0.75</v>
       </c>
       <c r="C38">
         <v>6</v>
       </c>
-      <c r="D38">
-        <v>37</v>
+      <c r="D38" s="2">
+        <v>0.75</v>
       </c>
       <c r="E38">
         <v>11</v>
       </c>
-      <c r="F38">
-        <v>37</v>
+      <c r="F38" s="2">
+        <v>0.75</v>
       </c>
       <c r="G38">
         <v>15</v>
       </c>
-      <c r="H38">
-        <v>37</v>
+      <c r="H38" s="2">
+        <v>0.75</v>
       </c>
       <c r="I38">
         <v>22</v>
       </c>
-      <c r="J38">
-        <v>37</v>
+      <c r="J38" s="2">
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
-      <c r="B39">
-        <v>38</v>
+      <c r="B39" s="2">
+        <v>0.77083333333333304</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
-      <c r="D39">
-        <v>38</v>
+      <c r="D39" s="2">
+        <v>0.77083333333333304</v>
       </c>
       <c r="E39">
         <v>12</v>
       </c>
-      <c r="F39">
-        <v>38</v>
+      <c r="F39" s="2">
+        <v>0.77083333333333304</v>
       </c>
       <c r="G39">
         <v>16</v>
       </c>
-      <c r="H39">
-        <v>38</v>
+      <c r="H39" s="2">
+        <v>0.77083333333333304</v>
       </c>
       <c r="I39">
         <v>23</v>
       </c>
-      <c r="J39">
-        <v>38</v>
+      <c r="J39" s="2">
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
-      <c r="B40">
-        <v>39</v>
+      <c r="B40" s="2">
+        <v>0.79166666666666696</v>
       </c>
       <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40">
-        <v>39</v>
+      <c r="D40" s="2">
+        <v>0.79166666666666696</v>
       </c>
       <c r="E40">
         <v>13</v>
       </c>
-      <c r="F40">
-        <v>39</v>
+      <c r="F40" s="2">
+        <v>0.79166666666666696</v>
       </c>
       <c r="G40">
         <v>17</v>
       </c>
-      <c r="H40">
-        <v>39</v>
+      <c r="H40" s="2">
+        <v>0.79166666666666696</v>
       </c>
       <c r="I40">
         <v>24</v>
       </c>
-      <c r="J40">
-        <v>39</v>
+      <c r="J40" s="2">
+        <v>0.79166666666666696</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41">
-        <v>40</v>
+      <c r="B41" s="2">
+        <v>0.8125</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
-      <c r="D41">
-        <v>40</v>
+      <c r="D41" s="2">
+        <v>0.8125</v>
       </c>
       <c r="E41">
         <v>14</v>
       </c>
-      <c r="F41">
-        <v>40</v>
+      <c r="F41" s="2">
+        <v>0.8125</v>
       </c>
       <c r="G41">
         <v>18</v>
       </c>
-      <c r="H41">
-        <v>40</v>
+      <c r="H41" s="2">
+        <v>0.8125</v>
       </c>
       <c r="I41">
         <v>25</v>
       </c>
-      <c r="J41">
-        <v>40</v>
+      <c r="J41" s="2">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
-      <c r="B42">
-        <v>41</v>
+      <c r="B42" s="2">
+        <v>0.83333333333333304</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42">
-        <v>41</v>
+      <c r="D42" s="2">
+        <v>0.83333333333333304</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
-      <c r="F42">
-        <v>41</v>
+      <c r="F42" s="2">
+        <v>0.83333333333333304</v>
       </c>
       <c r="G42">
         <v>19</v>
       </c>
-      <c r="H42">
-        <v>41</v>
+      <c r="H42" s="2">
+        <v>0.83333333333333304</v>
       </c>
       <c r="I42">
         <v>21</v>
       </c>
-      <c r="J42">
-        <v>41</v>
+      <c r="J42" s="2">
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
-      <c r="B43">
-        <v>42</v>
+      <c r="B43" s="2">
+        <v>0.85416666666666696</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>42</v>
+      <c r="D43" s="2">
+        <v>0.85416666666666696</v>
       </c>
       <c r="E43">
         <v>11</v>
       </c>
-      <c r="F43">
-        <v>42</v>
+      <c r="F43" s="2">
+        <v>0.85416666666666696</v>
       </c>
       <c r="G43">
         <v>20</v>
       </c>
-      <c r="H43">
-        <v>42</v>
+      <c r="H43" s="2">
+        <v>0.85416666666666696</v>
       </c>
       <c r="I43">
         <v>22</v>
       </c>
-      <c r="J43">
-        <v>42</v>
+      <c r="J43" s="2">
+        <v>0.85416666666666696</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3</v>
       </c>
-      <c r="B44">
-        <v>43</v>
+      <c r="B44" s="2">
+        <v>0.875</v>
       </c>
       <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>43</v>
+      <c r="D44" s="2">
+        <v>0.875</v>
       </c>
       <c r="E44">
         <v>12</v>
       </c>
-      <c r="F44">
-        <v>43</v>
+      <c r="F44" s="2">
+        <v>0.875</v>
       </c>
       <c r="G44">
         <v>15</v>
       </c>
-      <c r="H44">
-        <v>43</v>
+      <c r="H44" s="2">
+        <v>0.875</v>
       </c>
       <c r="I44">
         <v>23</v>
       </c>
-      <c r="J44">
-        <v>43</v>
+      <c r="J44" s="2">
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4</v>
       </c>
-      <c r="B45">
-        <v>44</v>
+      <c r="B45" s="2">
+        <v>0.89583333333333304</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45">
-        <v>44</v>
+      <c r="D45" s="2">
+        <v>0.89583333333333304</v>
       </c>
       <c r="E45">
         <v>13</v>
       </c>
-      <c r="F45">
-        <v>44</v>
+      <c r="F45" s="2">
+        <v>0.89583333333333304</v>
       </c>
       <c r="G45">
         <v>16</v>
       </c>
-      <c r="H45">
-        <v>44</v>
+      <c r="H45" s="2">
+        <v>0.89583333333333304</v>
       </c>
       <c r="I45">
         <v>24</v>
       </c>
-      <c r="J45">
-        <v>44</v>
+      <c r="J45" s="2">
+        <v>0.89583333333333304</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46">
-        <v>45</v>
+      <c r="B46" s="2">
+        <v>0.91666666666666696</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46">
-        <v>45</v>
+      <c r="D46" s="2">
+        <v>0.91666666666666696</v>
       </c>
       <c r="E46">
         <v>14</v>
       </c>
-      <c r="F46">
-        <v>45</v>
+      <c r="F46" s="2">
+        <v>0.91666666666666696</v>
       </c>
       <c r="G46">
         <v>17</v>
       </c>
-      <c r="H46">
-        <v>45</v>
+      <c r="H46" s="2">
+        <v>0.91666666666666696</v>
       </c>
       <c r="I46">
         <v>25</v>
       </c>
-      <c r="J46">
-        <v>45</v>
+      <c r="J46" s="2">
+        <v>0.91666666666666696</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47">
-        <v>46</v>
+      <c r="B47" s="2">
+        <v>0.9375</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>46</v>
+      <c r="D47" s="2">
+        <v>0.9375</v>
       </c>
       <c r="E47">
         <v>10</v>
       </c>
-      <c r="F47">
-        <v>46</v>
+      <c r="F47" s="2">
+        <v>0.9375</v>
       </c>
       <c r="G47">
         <v>18</v>
       </c>
-      <c r="H47">
-        <v>46</v>
+      <c r="H47" s="2">
+        <v>0.9375</v>
       </c>
       <c r="I47">
         <v>21</v>
       </c>
-      <c r="J47">
-        <v>46</v>
+      <c r="J47" s="2">
+        <v>0.9375</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48">
-        <v>47</v>
+      <c r="B48" s="2">
+        <v>0.95833333333333304</v>
       </c>
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48">
-        <v>47</v>
+      <c r="D48" s="2">
+        <v>0.95833333333333304</v>
       </c>
       <c r="E48">
         <v>11</v>
       </c>
-      <c r="F48">
-        <v>47</v>
+      <c r="F48" s="2">
+        <v>0.95833333333333304</v>
       </c>
       <c r="G48">
         <v>19</v>
       </c>
-      <c r="H48">
-        <v>47</v>
+      <c r="H48" s="2">
+        <v>0.95833333333333304</v>
       </c>
       <c r="I48">
         <v>22</v>
       </c>
-      <c r="J48">
-        <v>47</v>
+      <c r="J48" s="2">
+        <v>0.95833333333333304</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49">
-        <v>48</v>
+      <c r="B49" s="2">
+        <v>0.97916666666666696</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>48</v>
+      <c r="D49" s="2">
+        <v>0.97916666666666696</v>
       </c>
       <c r="E49">
         <v>12</v>
       </c>
-      <c r="F49">
-        <v>48</v>
+      <c r="F49" s="2">
+        <v>0.97916666666666696</v>
       </c>
       <c r="G49">
         <v>20</v>
       </c>
-      <c r="H49">
-        <v>48</v>
+      <c r="H49" s="2">
+        <v>0.97916666666666696</v>
       </c>
       <c r="I49">
         <v>23</v>
       </c>
-      <c r="J49">
-        <v>48</v>
+      <c r="J49" s="2">
+        <v>0.97916666666666696</v>
       </c>
     </row>
   </sheetData>

--- a/data/FictitiousData.xlsx
+++ b/data/FictitiousData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zachg\Documents\ug_thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E2195C-62AA-4C2E-A5FE-1E214781EFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D09C2C-F1BC-4446-8C3B-E9001121F4C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="799" firstSheet="2" activeTab="5" xr2:uid="{200E0D9B-9F6D-426A-BEB3-8930502E9E77}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeWindows" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>TimeWindow</t>
   </si>
@@ -83,24 +83,6 @@
   </si>
   <si>
     <t>2 - Time</t>
-  </si>
-  <si>
-    <t>3 - Nodes</t>
-  </si>
-  <si>
-    <t>3 - Time</t>
-  </si>
-  <si>
-    <t>4 - Nodes</t>
-  </si>
-  <si>
-    <t>4 - Time</t>
-  </si>
-  <si>
-    <t>5 - Nodes</t>
-  </si>
-  <si>
-    <t>5 - Time</t>
   </si>
 </sst>
 </file>
@@ -3415,7 +3397,7 @@
   <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5507,15 +5489,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A33471-588E-4B24-8A7F-8A915BF72CF3}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
@@ -5528,1559 +5510,854 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <f>IF(B2="", "", IF(B2+VLOOKUP(PublicTransit!A2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B2+VLOOKUP(PublicTransit!A2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>2.6041666666666668E-2</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <f>IF(D2="", "", IF(D2+VLOOKUP(PublicTransit!C2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D2+VLOOKUP(PublicTransit!C2, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C3, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>8.6805555555555559E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <f>IF(B3="", "", IF(B3+VLOOKUP(PublicTransit!A3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B3+VLOOKUP(PublicTransit!A3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>6.0763888888888895E-2</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <f>IF(D3="", "", IF(D3+VLOOKUP(PublicTransit!C3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D3+VLOOKUP(PublicTransit!C3, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C4, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>4.3402777777777776E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B5" s="2">
+        <f>IF(B4="", "", IF(B4+VLOOKUP(PublicTransit!A4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B4+VLOOKUP(PublicTransit!A4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <f>IF(D4="", "", IF(D4+VLOOKUP(PublicTransit!C4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D4+VLOOKUP(PublicTransit!C4, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C5, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>6.0763888888888888E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <f>IF(B5="", "", IF(B5+VLOOKUP(PublicTransit!A5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B5+VLOOKUP(PublicTransit!A5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.12152777777777779</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <f>IF(D5="", "", IF(D5+VLOOKUP(PublicTransit!C5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D5+VLOOKUP(PublicTransit!C5, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C6, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.10416666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2">
+        <f>IF(B6="", "", IF(B6+VLOOKUP(PublicTransit!A6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B6+VLOOKUP(PublicTransit!A6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.14756944444444445</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IF(D6="", "", IF(D6+VLOOKUP(PublicTransit!C6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D6+VLOOKUP(PublicTransit!C6, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C7, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>A2</f>
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <f>IF(B7="", "", IF(B7+VLOOKUP(PublicTransit!A7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B7+VLOOKUP(PublicTransit!A7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.15625</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="G3">
+      <c r="D8" s="2">
+        <f>IF(D7="", "", IF(D7+VLOOKUP(PublicTransit!C7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D7+VLOOKUP(PublicTransit!C7, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C8, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.19097222222222224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" ref="A9:A49" si="0">A3</f>
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <f>IF(B8="", "", IF(B8+VLOOKUP(PublicTransit!A8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B8+VLOOKUP(PublicTransit!A8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.18229166666666666</v>
+      </c>
+      <c r="C9">
+        <f>C2</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF(D8="", "", IF(D8+VLOOKUP(PublicTransit!C8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D8+VLOOKUP(PublicTransit!C8, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C9, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>IF(B9="", "", IF(B9+VLOOKUP(PublicTransit!A9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B9+VLOOKUP(PublicTransit!A9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.2170138888888889</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C49" si="1">C3</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF(D9="", "", IF(D9+VLOOKUP(PublicTransit!C9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D9+VLOOKUP(PublicTransit!C9, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C10, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.2170138888888889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f>IF(B10="", "", IF(B10+VLOOKUP(PublicTransit!A10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B10+VLOOKUP(PublicTransit!A10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IF(D10="", "", IF(D10+VLOOKUP(PublicTransit!C10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D10+VLOOKUP(PublicTransit!C10, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C11, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.2517361111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <f>IF(B11="", "", IF(B11+VLOOKUP(PublicTransit!A11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B11+VLOOKUP(PublicTransit!A11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IF(D11="", "", IF(D11+VLOOKUP(PublicTransit!C11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D11+VLOOKUP(PublicTransit!C11, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C12, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.26909722222222221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <f>IF(B12="", "", IF(B12+VLOOKUP(PublicTransit!A12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B12+VLOOKUP(PublicTransit!A12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.30381944444444448</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H3" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="I3">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="C4">
+      <c r="D13" s="2">
+        <f>IF(D12="", "", IF(D12+VLOOKUP(PublicTransit!C12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D12+VLOOKUP(PublicTransit!C12, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C13, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <f>IF(B13="", "", IF(B13+VLOOKUP(PublicTransit!A13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B13+VLOOKUP(PublicTransit!A13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.31250000000000006</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <f>IF(D13="", "", IF(D13+VLOOKUP(PublicTransit!C13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D13+VLOOKUP(PublicTransit!C13, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C14, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.34722222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <f>IF(B14="", "", IF(B14+VLOOKUP(PublicTransit!A14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B14+VLOOKUP(PublicTransit!A14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.33854166666666674</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <f>IF(D14="", "", IF(D14+VLOOKUP(PublicTransit!C14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D14+VLOOKUP(PublicTransit!C14, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C15, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.39930555555555552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D4" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="E4">
+      <c r="B16" s="2">
+        <f>IF(B15="", "", IF(B15+VLOOKUP(PublicTransit!A15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B15+VLOOKUP(PublicTransit!A15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.37326388888888895</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="2">
+        <f>IF(D15="", "", IF(D15+VLOOKUP(PublicTransit!C15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D15+VLOOKUP(PublicTransit!C15, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C16, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <f>IF(B16="", "", IF(B16+VLOOKUP(PublicTransit!A16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B16+VLOOKUP(PublicTransit!A16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.39930555555555564</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <f>IF(D16="", "", IF(D16+VLOOKUP(PublicTransit!C16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D16+VLOOKUP(PublicTransit!C16, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C17, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.42534722222222221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F4" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
-      <c r="I4">
+      <c r="B18" s="2">
+        <f>IF(B17="", "", IF(B17+VLOOKUP(PublicTransit!A17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B17+VLOOKUP(PublicTransit!A17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.43402777777777785</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="J4" s="2">
-        <v>4.1666666666666699E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C5">
+      <c r="D18" s="2">
+        <f>IF(D17="", "", IF(D17+VLOOKUP(PublicTransit!C17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D17+VLOOKUP(PublicTransit!C17, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C18, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.46006944444444442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <f>IF(B18="", "", IF(B18+VLOOKUP(PublicTransit!A18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B18+VLOOKUP(PublicTransit!A18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.46006944444444453</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <f>IF(D18="", "", IF(D18+VLOOKUP(PublicTransit!C18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D18+VLOOKUP(PublicTransit!C18, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C19, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.47743055555555552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <f>IF(B19="", "", IF(B19+VLOOKUP(PublicTransit!A19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B19+VLOOKUP(PublicTransit!A19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.46875000000000011</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IF(D19="", "", IF(D19+VLOOKUP(PublicTransit!C19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D19+VLOOKUP(PublicTransit!C19, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C20, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <f>IF(B20="", "", IF(B20+VLOOKUP(PublicTransit!A20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B20+VLOOKUP(PublicTransit!A20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.4947916666666668</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <f>IF(D20="", "", IF(D20+VLOOKUP(PublicTransit!C20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D20+VLOOKUP(PublicTransit!C20, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C21, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.55555555555555547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <f>IF(B21="", "", IF(B21+VLOOKUP(PublicTransit!A21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B21+VLOOKUP(PublicTransit!A21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.52951388888888906</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <f>IF(D21="", "", IF(D21+VLOOKUP(PublicTransit!C21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D21+VLOOKUP(PublicTransit!C21, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C22, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.60763888888888884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <f>IF(B22="", "", IF(B22+VLOOKUP(PublicTransit!A22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B22+VLOOKUP(PublicTransit!A22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.55555555555555569</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D5" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="I5">
+      <c r="D23" s="2">
+        <f>IF(D22="", "", IF(D22+VLOOKUP(PublicTransit!C22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D22+VLOOKUP(PublicTransit!C22, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C23, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B24" s="2">
+        <f>IF(B23="", "", IF(B23+VLOOKUP(PublicTransit!A23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B23+VLOOKUP(PublicTransit!A23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.5902777777777779</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="2">
+        <f>IF(D23="", "", IF(D23+VLOOKUP(PublicTransit!C23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D23+VLOOKUP(PublicTransit!C23, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C24, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.63368055555555558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="2">
+        <f>IF(B24="", "", IF(B24+VLOOKUP(PublicTransit!A24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B24+VLOOKUP(PublicTransit!A24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.61631944444444453</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IF(D24="", "", IF(D24+VLOOKUP(PublicTransit!C24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D24+VLOOKUP(PublicTransit!C24, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C25, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.66840277777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <f>IF(B25="", "", IF(B25+VLOOKUP(PublicTransit!A25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B25+VLOOKUP(PublicTransit!A25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <f>IF(D25="", "", IF(D25+VLOOKUP(PublicTransit!C25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D25+VLOOKUP(PublicTransit!C25, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C26, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.68576388888888895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="2">
+        <f>IF(B26="", "", IF(B26+VLOOKUP(PublicTransit!A26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B26+VLOOKUP(PublicTransit!A26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.65104166666666674</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="2">
+        <f>IF(D26="", "", IF(D26+VLOOKUP(PublicTransit!C26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D26+VLOOKUP(PublicTransit!C26, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C27, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.72916666666666674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <f>IF(B27="", "", IF(B27+VLOOKUP(PublicTransit!A27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B27+VLOOKUP(PublicTransit!A27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.68576388888888895</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J5" s="2">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C6">
+      <c r="D28" s="2">
+        <f>IF(D27="", "", IF(D27+VLOOKUP(PublicTransit!C27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D27+VLOOKUP(PublicTransit!C27, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C28, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.76388888888888895</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <f>IF(B28="", "", IF(B28+VLOOKUP(PublicTransit!A28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B28+VLOOKUP(PublicTransit!A28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D29" s="2">
+        <f>IF(D28="", "", IF(D28+VLOOKUP(PublicTransit!C28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D28+VLOOKUP(PublicTransit!C28, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C29, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.81597222222222232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <f>IF(B29="", "", IF(B29+VLOOKUP(PublicTransit!A29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B29+VLOOKUP(PublicTransit!A29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <f>IF(D29="", "", IF(D29+VLOOKUP(PublicTransit!C29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D29+VLOOKUP(PublicTransit!C29, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C30, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.83333333333333348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <f>IF(B30="", "", IF(B30+VLOOKUP(PublicTransit!A30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B30+VLOOKUP(PublicTransit!A30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.77256944444444442</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D6" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="G6">
+      <c r="D31" s="2">
+        <f>IF(D30="", "", IF(D30+VLOOKUP(PublicTransit!C30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D30+VLOOKUP(PublicTransit!C30, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C31, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.84201388888888906</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="2">
+        <f>IF(B31="", "", IF(B31+VLOOKUP(PublicTransit!A31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B31+VLOOKUP(PublicTransit!A31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.78125</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D32" s="2">
+        <f>IF(D31="", "", IF(D31+VLOOKUP(PublicTransit!C31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D31+VLOOKUP(PublicTransit!C31, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C32, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.87673611111111127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <f>IF(B32="", "", IF(B32+VLOOKUP(PublicTransit!A32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B32+VLOOKUP(PublicTransit!A32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.80729166666666663</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="2">
+        <f>IF(D32="", "", IF(D32+VLOOKUP(PublicTransit!C32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D32+VLOOKUP(PublicTransit!C32, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C33, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.89409722222222243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <f>IF(B33="", "", IF(B33+VLOOKUP(PublicTransit!A33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B33+VLOOKUP(PublicTransit!A33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.84201388888888884</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D34" s="2">
+        <f>IF(D33="", "", IF(D33+VLOOKUP(PublicTransit!C33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D33+VLOOKUP(PublicTransit!C33, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C34, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.93750000000000022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <f>IF(B34="", "", IF(B34+VLOOKUP(PublicTransit!A34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B34+VLOOKUP(PublicTransit!A34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <f>IF(D34="", "", IF(D34+VLOOKUP(PublicTransit!C34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D34+VLOOKUP(PublicTransit!C34, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C35, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.97222222222222243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <f>IF(B35="", "", IF(B35+VLOOKUP(PublicTransit!A35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B35+VLOOKUP(PublicTransit!A35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.90277777777777768</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>IF(D35="", "", IF(D35+VLOOKUP(PublicTransit!C35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D35+VLOOKUP(PublicTransit!C35, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C36, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="H6" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="I6">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B37" s="2">
+        <f>IF(B36="", "", IF(B36+VLOOKUP(PublicTransit!A36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B36+VLOOKUP(PublicTransit!A36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.92881944444444431</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>IF(D36="", "", IF(D36+VLOOKUP(PublicTransit!C36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D36+VLOOKUP(PublicTransit!C36, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C37, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B38" s="2">
+        <f>IF(B37="", "", IF(B37+VLOOKUP(PublicTransit!A37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B37+VLOOKUP(PublicTransit!A37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.93749999999999989</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>IF(D37="", "", IF(D37+VLOOKUP(PublicTransit!C37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D37+VLOOKUP(PublicTransit!C37, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C38, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B39" s="2">
+        <f>IF(B38="", "", IF(B38+VLOOKUP(PublicTransit!A38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B38+VLOOKUP(PublicTransit!A38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.96354166666666652</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>IF(D38="", "", IF(D38+VLOOKUP(PublicTransit!C38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D38+VLOOKUP(PublicTransit!C38, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C39, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B40" s="2">
+        <f>IF(B39="", "", IF(B39+VLOOKUP(PublicTransit!A39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B39+VLOOKUP(PublicTransit!A39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v>0.99826388888888873</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>IF(D39="", "", IF(D39+VLOOKUP(PublicTransit!C39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D39+VLOOKUP(PublicTransit!C39, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C40, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f>IF(B40="", "", IF(B40+VLOOKUP(PublicTransit!A40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B40+VLOOKUP(PublicTransit!A40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>IF(D40="", "", IF(D40+VLOOKUP(PublicTransit!C40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D40+VLOOKUP(PublicTransit!C40, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C41, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>IF(B41="", "", IF(B41+VLOOKUP(PublicTransit!A41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B41+VLOOKUP(PublicTransit!A41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>IF(D41="", "", IF(D41+VLOOKUP(PublicTransit!C41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D41+VLOOKUP(PublicTransit!C41, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C42, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>IF(B42="", "", IF(B42+VLOOKUP(PublicTransit!A42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B42+VLOOKUP(PublicTransit!A42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="C7">
+      <c r="D43" s="2" t="str">
+        <f>IF(D42="", "", IF(D42+VLOOKUP(PublicTransit!C42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D42+VLOOKUP(PublicTransit!C42, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C43, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>IF(B43="", "", IF(B43+VLOOKUP(PublicTransit!A43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B43+VLOOKUP(PublicTransit!A43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>IF(D43="", "", IF(D43+VLOOKUP(PublicTransit!C43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D43+VLOOKUP(PublicTransit!C43, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C44, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D7" s="2">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="E7">
+      <c r="B45" s="2" t="str">
+        <f>IF(B44="", "", IF(B44+VLOOKUP(PublicTransit!A44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B44+VLOOKUP(PublicTransit!A44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>IF(D44="", "", IF(D44+VLOOKUP(PublicTransit!C44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D44+VLOOKUP(PublicTransit!C44, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C45, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f>IF(B45="", "", IF(B45+VLOOKUP(PublicTransit!A45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B45+VLOOKUP(PublicTransit!A45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>IF(D45="", "", IF(D45+VLOOKUP(PublicTransit!C45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D45+VLOOKUP(PublicTransit!C45, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C46, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.104166666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="I8">
-        <v>22</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="E9">
+      <c r="B47" s="2" t="str">
+        <f>IF(B46="", "", IF(B46+VLOOKUP(PublicTransit!A46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B46+VLOOKUP(PublicTransit!A46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>IF(D46="", "", IF(D46+VLOOKUP(PublicTransit!C46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D46+VLOOKUP(PublicTransit!C46, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C47, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="G9">
+      <c r="B48" s="2" t="str">
+        <f>IF(B47="", "", IF(B47+VLOOKUP(PublicTransit!A47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B47+VLOOKUP(PublicTransit!A47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="I9">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.14583333333333301</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="E10">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="I10">
+      <c r="D48" s="2" t="str">
+        <f>IF(D47="", "", IF(D47+VLOOKUP(PublicTransit!C47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D47+VLOOKUP(PublicTransit!C47, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C48, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f>IF(B48="", "", IF(B48+VLOOKUP(PublicTransit!A48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", B48+VLOOKUP(PublicTransit!A48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(A49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J10" s="2">
-        <v>0.16666666666666699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="G11">
-        <v>18</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.1875</v>
-      </c>
-      <c r="I11">
-        <v>25</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="G12">
-        <v>19</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.20833333333333301</v>
-      </c>
-      <c r="I12">
-        <v>21</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.20833333333333301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.22916666666666699</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.22916666666666699</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.22916666666666699</v>
-      </c>
-      <c r="G13">
-        <v>20</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.22916666666666699</v>
-      </c>
-      <c r="I13">
-        <v>22</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.22916666666666699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="I14">
-        <v>23</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.27083333333333298</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.27083333333333298</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.27083333333333298</v>
-      </c>
-      <c r="G15">
-        <v>16</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.27083333333333298</v>
-      </c>
-      <c r="I15">
-        <v>24</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.27083333333333298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="G16">
-        <v>17</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-      <c r="I16">
-        <v>25</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.29166666666666702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="G17">
-        <v>18</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="I17">
-        <v>21</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E18">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="G18">
-        <v>19</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="I18">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="C19">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="E19">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="G19">
-        <v>20</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0.35416666666666702</v>
-      </c>
-      <c r="I19">
-        <v>23</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.35416666666666702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="E20">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="E21">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="G21">
-        <v>16</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-      <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.39583333333333298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="G22">
-        <v>17</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.41666666666666702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="E23">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="G23">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="G24">
-        <v>19</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.45833333333333298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="E25">
-        <v>13</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="G25">
-        <v>20</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E26">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="G27">
-        <v>16</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="I27">
-        <v>21</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="G28">
-        <v>17</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="I28">
-        <v>22</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="E29">
-        <v>12</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="G29">
-        <v>18</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.5625</v>
-      </c>
-      <c r="I29">
-        <v>23</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C30">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="E30">
-        <v>13</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="G30">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="I30">
-        <v>24</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="C31">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="I31">
-        <v>25</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="G32">
-        <v>15</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I32">
-        <v>21</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="E33">
-        <v>11</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="G33">
-        <v>16</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="I33">
-        <v>22</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E34">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G34">
-        <v>17</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I34">
-        <v>23</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="C35">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="E35">
-        <v>13</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="G35">
-        <v>18</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="I35">
-        <v>24</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>3</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="E36">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="G36">
-        <v>19</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="I36">
-        <v>25</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="G37">
-        <v>20</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="I37">
-        <v>21</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C38">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G38">
-        <v>15</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="I38">
-        <v>22</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="C39">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="E39">
-        <v>12</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="G39">
-        <v>16</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="I39">
-        <v>23</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0.77083333333333304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="C40">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="E40">
-        <v>13</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G40">
-        <v>17</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="I40">
-        <v>24</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="C41">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="E41">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="G41">
-        <v>18</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0.8125</v>
-      </c>
-      <c r="I41">
-        <v>25</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.8125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="G42">
-        <v>19</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="I42">
-        <v>21</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="E43">
-        <v>11</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="G43">
-        <v>20</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0.85416666666666696</v>
-      </c>
-      <c r="I43">
-        <v>22</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.85416666666666696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="C44">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="E44">
-        <v>12</v>
-      </c>
-      <c r="F44" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="G44">
-        <v>15</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0.875</v>
-      </c>
-      <c r="I44">
-        <v>23</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2">
-        <v>0.89583333333333304</v>
-      </c>
-      <c r="C45">
-        <v>8</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.89583333333333304</v>
-      </c>
-      <c r="E45">
-        <v>13</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.89583333333333304</v>
-      </c>
-      <c r="G45">
-        <v>16</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.89583333333333304</v>
-      </c>
-      <c r="I45">
-        <v>24</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.89583333333333304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="C46">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="E46">
-        <v>14</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="G46">
-        <v>17</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0.91666666666666696</v>
-      </c>
-      <c r="I46">
-        <v>25</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.91666666666666696</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>2</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="G47">
-        <v>18</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.9375</v>
-      </c>
-      <c r="I47">
-        <v>21</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48" s="2">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="E48">
-        <v>11</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="G48">
-        <v>19</v>
-      </c>
-      <c r="H48" s="2">
-        <v>0.95833333333333304</v>
-      </c>
-      <c r="I48">
-        <v>22</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0.95833333333333304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="C49">
-        <v>7</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="E49">
-        <v>12</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="G49">
-        <v>20</v>
-      </c>
-      <c r="H49" s="2">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="I49">
-        <v>23</v>
-      </c>
-      <c r="J49" s="2">
-        <v>0.97916666666666696</v>
+      <c r="D49" s="2" t="str">
+        <f>IF(D48="", "", IF(D48+VLOOKUP(PublicTransit!C48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60&gt;1, "", D48+VLOOKUP(PublicTransit!C48, 'OD-TravelTime'!$A$1:$Z$26, MATCH(C49, 'OD-TravelTime'!$B$1:$Z$1)+1)/24/60))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
